--- a/biology/Botanique/Rebella/Rebella.xlsx
+++ b/biology/Botanique/Rebella/Rebella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rebella est un cultivar de pommier domestique.
 Nom botanique: Malus domestica Borkh rebella
@@ -512,9 +524,11 @@
           <t>Droits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">REBELLA est une variété enregistrée au registre de l'Union européenne[1], donc protégée particulièrement dans les pays qui en font partie;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REBELLA est une variété enregistrée au registre de l'Union européenne, donc protégée particulièrement dans les pays qui en font partie;
 Numéro de variété: 10198
 Date d'inscription: 15/02/2002
 Demandeur: BUNDESANSTALT FÜR ZÜCHTUNGSFORSCHUNG AN KULTURPFLANZEN
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Épicarpe: rouge à fond jaune.
 Calibre: moyen.
@@ -579,7 +595,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Institut de Dresde-Pillnitz, Allemagne.
 </t>
@@ -610,7 +628,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Croisement : Golden Delicious x Remo (James Grieve x BX44,14)
 </t>
@@ -641,10 +661,12 @@
           <t>Pollinisation, germination et fécondation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Variété diploïde[2].
-Groupe de floraison: C[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Variété diploïde.
+Groupe de floraison: C.
 Variétés pollinisatrices : Pia, Piflora, Pingo, Pinova, Pirol, Reanda, Reglindis, Retina, Rewena, James Grieve, Idared</t>
         </is>
       </c>
@@ -673,7 +695,9 @@
           <t>Susceptibilités et résistances diverses - Maladies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le cultivar Rebella est multirésistant.
 Tavelure: résistant
@@ -709,7 +733,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Porte-greffe: M26 pour basse-tige.
 Cueillette: entre la mi et la fin septembre.
